--- a/assets/docs/template_mt_parceiros.xlsx
+++ b/assets/docs/template_mt_parceiros.xlsx
@@ -363,7 +363,7 @@
     <t>💬 Iniciar Atendimento</t>
   </si>
   <si>
-    <t>🤖 Simulação gerada por Algoritmo de IA MT Parceiros  •  Gerado em 27/02/2026 • © MT Parceiros</t>
+    <t>🤖 Simulação gerada por Algoritmo de IA MT Parceiros  •  Gerado em 28/02/2026 • © MT Parceiros</t>
   </si>
   <si>
     <t>📍 mtparceiros@gmail.com | 📞 (11) 96036-4355 | 🌐 mtparceiros-alt.github.io/site-mt</t>
@@ -2549,10 +2549,6 @@
       <c r="E23" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="3:11" s="6" customFormat="1" ht="20" customHeight="1"/>
     <row r="25" spans="3:11" s="6" customFormat="1" ht="20" customHeight="1"/>
@@ -2842,7 +2838,7 @@
     <row r="150" s="6" customFormat="1" ht="20" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" autoFilter="0"/>
-  <mergeCells count="27">
+  <mergeCells count="26">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -2854,7 +2850,6 @@
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="C20:K20"/>
     <mergeCell ref="C21:K21"/>
-    <mergeCell ref="E23:I23"/>
     <mergeCell ref="C26:K27"/>
     <mergeCell ref="C29:K29"/>
     <mergeCell ref="C34:E34"/>
@@ -2990,95 +2985,100 @@
       </c>
     </row>
     <row r="11" spans="2:12" s="6" customFormat="1" ht="20" customHeight="1"/>
-    <row r="12" spans="2:12" s="6" customFormat="1" ht="20" customHeight="1"/>
-    <row r="13" spans="2:12">
+    <row r="12" spans="2:12">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="2:12" ht="30" customHeight="1">
       <c r="B13" s="31"/>
-      <c r="C13" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="32"/>
+      <c r="C13" s="33">
+        <f>'Educação Financeira'!$E13</f>
+        <v>0</v>
+      </c>
       <c r="F13" s="31"/>
-      <c r="G13" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="2:12" ht="30" customHeight="1">
-      <c r="B14" s="31"/>
-      <c r="C14" s="33">
-        <f>'Educação Financeira'!E13</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="34">
-        <f>'Educação Financeira'!E31</f>
-        <v>0</v>
-      </c>
-    </row>
+      <c r="G13" s="34">
+        <f>'Educação Financeira'!$E31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" s="6" customFormat="1" ht="20" customHeight="1"/>
     <row r="15" spans="2:12" s="6" customFormat="1" ht="20" customHeight="1"/>
-    <row r="16" spans="2:12" s="6" customFormat="1" ht="20" customHeight="1"/>
-    <row r="17" spans="2:11">
+    <row r="16" spans="2:12">
+      <c r="B16" s="31"/>
+      <c r="C16" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="2:11" ht="30" customHeight="1">
       <c r="B17" s="31"/>
-      <c r="C17" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="32"/>
+      <c r="C17" s="33">
+        <f>'Educação Financeira'!$E29</f>
+        <v>0</v>
+      </c>
       <c r="F17" s="31"/>
-      <c r="G17" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="32"/>
-    </row>
-    <row r="18" spans="2:11" ht="30" customHeight="1">
-      <c r="B18" s="31"/>
-      <c r="C18" s="33">
-        <f>'Educação Financeira'!E29</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="34">
-        <f>'Educação Financeira'!E33</f>
-        <v>0</v>
-      </c>
-    </row>
+      <c r="G17" s="34">
+        <f>'Educação Financeira'!$E33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="6" customFormat="1" ht="20" customHeight="1"/>
     <row r="19" spans="2:11" s="6" customFormat="1" ht="20" customHeight="1"/>
-    <row r="20" spans="2:11" s="6" customFormat="1" ht="20" customHeight="1"/>
-    <row r="21" spans="2:11">
+    <row r="20" spans="2:11">
+      <c r="B20" s="31"/>
+      <c r="C20" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="2:11" ht="30" customHeight="1">
       <c r="B21" s="31"/>
-      <c r="C21" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="32"/>
+      <c r="C21" s="33">
+        <f>'Educação Financeira'!$E30</f>
+        <v>0</v>
+      </c>
       <c r="F21" s="31"/>
-      <c r="G21" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="32"/>
-    </row>
-    <row r="22" spans="2:11" ht="30" customHeight="1">
-      <c r="B22" s="31"/>
-      <c r="C22" s="33">
-        <f>'Educação Financeira'!E30</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="35">
-        <f>('Educação Financeira'!E33 / 'Educação Financeira'!E13)</f>
-        <v>0</v>
-      </c>
-    </row>
+      <c r="G21" s="35">
+        <f>('Educação Financeira'!$E33 / 'Educação Financeira'!$E13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="6" customFormat="1" ht="20" customHeight="1"/>
     <row r="23" spans="2:11" s="6" customFormat="1" ht="20" customHeight="1"/>
-    <row r="24" spans="2:11" s="6" customFormat="1" ht="20" customHeight="1">
+    <row r="24" spans="2:11">
+      <c r="B24" s="31"/>
+      <c r="C24" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="32"/>
       <c r="I24" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" ht="30" customHeight="1">
       <c r="B25" s="31"/>
-      <c r="C25" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="32"/>
+      <c r="C25" s="33">
+        <f>'Educação Financeira'!$E24</f>
+        <v>0</v>
+      </c>
       <c r="I25" s="36">
         <f>IF('Educação Financeira'!E33/'Educação Financeira'!E13 &lt;= 0.30, "Aprovação Provável", "Risco de Parcelamento")</f>
         <v>0</v>
@@ -3086,12 +3086,7 @@
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
     </row>
-    <row r="26" spans="2:11" ht="30" customHeight="1">
-      <c r="B26" s="31"/>
-      <c r="C26" s="33">
-        <f>'Educação Financeira'!E24</f>
-        <v>0</v>
-      </c>
+    <row r="26" spans="2:11" s="6" customFormat="1" ht="20" customHeight="1">
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
@@ -3319,20 +3314,20 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="C8:K8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="I25:K26"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E30"/>
@@ -3989,7 +3984,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
       <c r="F10" s="52">
-        <f>('Educação Financeira'!E31) - (SUMIF(B13:B100, "Sim", D13:D100) + SUMIF(B13:B100, "Sim", E13:E100))</f>
+        <f>('Educação Financeira'!$E31) - (SUMIF(B13:B100, "Sim", D13:D100) + SUMIF(B13:B100, "Sim", E13:E100))</f>
         <v>0</v>
       </c>
       <c r="G10" s="52"/>
@@ -4045,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H13" s="58">
@@ -4074,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H14" s="58">
@@ -4103,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H15" s="58">
@@ -4132,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H16" s="58">
@@ -4161,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H17" s="58">
@@ -4190,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H18" s="58">
@@ -4219,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H19" s="58">
@@ -4248,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H20" s="58">
@@ -4277,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H21" s="58">
@@ -4306,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H22" s="58">
@@ -4335,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H23" s="58">
@@ -4364,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H24" s="58">
@@ -4393,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H25" s="58">
@@ -4422,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H26" s="58">
@@ -4451,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H27" s="58">
@@ -4480,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H28" s="58">
@@ -4509,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H29" s="58">
@@ -4538,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H30" s="58">
@@ -4567,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H31" s="58">
@@ -4596,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H32" s="58">
@@ -4625,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H33" s="58">
@@ -4654,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H34" s="58">
@@ -4683,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H35" s="58">
@@ -4712,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H36" s="58">
@@ -4741,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H37" s="58">
@@ -4770,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H38" s="58">
@@ -4799,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H39" s="58">
@@ -4828,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H40" s="58">
@@ -4857,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H41" s="58">
@@ -4886,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H42" s="58">
@@ -4915,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H43" s="58">
@@ -4944,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H44" s="58">
@@ -4973,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H45" s="58">
@@ -5002,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H46" s="58">
@@ -5031,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H47" s="58">
@@ -5060,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="57">
-        <f>('Educação Financeira'!E31)</f>
+        <f>('Educação Financeira'!$E31)</f>
         <v>0</v>
       </c>
       <c r="H48" s="58">
